--- a/data/feng-wei-tekken-8-frame-data.xlsx
+++ b/data/feng-wei-tekken-8-frame-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,15 +492,11 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -522,15 +518,11 @@
       <c r="D3" t="n">
         <v>25</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -560,15 +552,11 @@
       <c r="D4" t="n">
         <v>21</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -590,15 +578,11 @@
       <c r="D5" t="n">
         <v>10</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
@@ -624,15 +608,11 @@
       <c r="D6" t="n">
         <v>17</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -673,10 +653,8 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="F8" t="n">
+        <v>-3</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
@@ -702,15 +680,11 @@
       <c r="D9" t="n">
         <v>16</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
@@ -752,15 +726,11 @@
       <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -782,15 +752,11 @@
       <c r="D12" t="n">
         <v>16</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
@@ -815,10 +781,8 @@
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F13" t="n">
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
@@ -844,15 +808,11 @@
       <c r="D14" t="n">
         <v>17</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-1</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
@@ -878,15 +838,11 @@
       <c r="D15" t="n">
         <v>24</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>+24 (+14)</t>
-        </is>
+      <c r="E15" t="n">
+        <v>12</v>
+      </c>
+      <c r="F15" t="n">
+        <v>24</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
@@ -912,15 +868,11 @@
       <c r="D16" t="n">
         <v>16</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E16" t="n">
+        <v>11</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -942,15 +894,11 @@
       <c r="D17" t="n">
         <v>28</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>+22 (+17)</t>
-        </is>
+      <c r="E17" t="n">
+        <v>12</v>
+      </c>
+      <c r="F17" t="n">
+        <v>22</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
@@ -976,15 +924,11 @@
       <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
@@ -1010,15 +954,11 @@
       <c r="D19" t="n">
         <v>25</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F19" t="n">
+        <v>17</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
@@ -1044,15 +984,11 @@
       <c r="D20" t="n">
         <v>34</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>+19</t>
-        </is>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>19</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1074,15 +1010,11 @@
       <c r="D21" t="n">
         <v>18</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-26</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>+19 (+12)</t>
-        </is>
+      <c r="E21" t="n">
+        <v>26</v>
+      </c>
+      <c r="F21" t="n">
+        <v>19</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
@@ -1108,15 +1040,11 @@
       <c r="D22" t="n">
         <v>28</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E22" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1142,15 +1070,11 @@
       <c r="D23" t="n">
         <v>10</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E23" t="n">
+        <v>12</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1176,15 +1100,11 @@
       <c r="D24" t="n">
         <v>13</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E24" t="n">
+        <v>19</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
@@ -1226,15 +1146,11 @@
       <c r="D26" t="n">
         <v>17</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E26" t="n">
+        <v>11</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1256,15 +1172,11 @@
       <c r="D27" t="n">
         <v>22</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E27" t="n">
+        <v>11</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
@@ -1290,15 +1202,11 @@
       <c r="D28" t="n">
         <v>24</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>+19 (+12)</t>
-        </is>
+      <c r="E28" t="n">
+        <v>12</v>
+      </c>
+      <c r="F28" t="n">
+        <v>19</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
@@ -1324,15 +1232,11 @@
       <c r="D29" t="n">
         <v>24</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E29" t="n">
+        <v>6</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
@@ -1358,15 +1262,11 @@
       <c r="D30" t="n">
         <v>22</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
+      <c r="E30" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1412,15 +1312,11 @@
       <c r="D32" t="n">
         <v>12</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E32" t="n">
+        <v>9</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -1441,10 +1337,8 @@
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="F33" t="n">
+        <v>-4</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
@@ -1470,15 +1364,11 @@
       <c r="D34" t="n">
         <v>25</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>+10 (+1)</t>
-        </is>
+      <c r="E34" t="n">
+        <v>15</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -1500,15 +1390,11 @@
       <c r="D35" t="n">
         <v>12</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>14</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -1530,15 +1416,11 @@
       <c r="D36" t="n">
         <v>16</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>8</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1567,10 +1449,8 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="F37" t="n">
+        <v>-5</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
@@ -1596,15 +1476,11 @@
       <c r="D38" t="n">
         <v>19</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E38" t="n">
+        <v>13</v>
+      </c>
+      <c r="F38" t="n">
+        <v>17</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
@@ -1630,15 +1506,11 @@
       <c r="D39" t="n">
         <v>32</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>+8c</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E39" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
@@ -1664,15 +1536,11 @@
       <c r="D40" t="n">
         <v>18</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>26c</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E40" t="n">
+        <v>-26</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-3</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1698,15 +1566,11 @@
       <c r="D41" t="n">
         <v>20</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E41" t="n">
+        <v>9</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -1728,15 +1592,11 @@
       <c r="D42" t="n">
         <v>22</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>+18 (+11)</t>
-        </is>
+      <c r="E42" t="n">
+        <v>12</v>
+      </c>
+      <c r="F42" t="n">
+        <v>18</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
@@ -1762,15 +1622,11 @@
       <c r="D43" t="n">
         <v>20</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E43" t="n">
+        <v>12</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-1</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -1792,15 +1648,11 @@
       <c r="D44" t="n">
         <v>14</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E44" t="n">
+        <v>11</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
@@ -1822,15 +1674,11 @@
       <c r="D45" t="n">
         <v>26</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>+11 (+2)</t>
-        </is>
+      <c r="E45" t="n">
+        <v>10</v>
+      </c>
+      <c r="F45" t="n">
+        <v>11</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
@@ -1856,15 +1704,11 @@
       <c r="D46" t="n">
         <v>16</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E46" t="n">
+        <v>12</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -1886,15 +1730,11 @@
       <c r="D47" t="n">
         <v>21</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -1916,15 +1756,11 @@
       <c r="D48" t="n">
         <v>23</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E48" t="n">
+        <v>11</v>
+      </c>
+      <c r="F48" t="n">
+        <v>7</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1950,15 +1786,11 @@
       <c r="D49" t="n">
         <v>29</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E49" t="n">
+        <v>12</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-1</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -1984,15 +1816,11 @@
       <c r="D50" t="n">
         <v>24</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>+24 (+15)</t>
-        </is>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>24</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
@@ -2018,15 +1846,11 @@
       <c r="D51" t="n">
         <v>20</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E51" t="n">
+        <v>11</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -2048,15 +1872,11 @@
       <c r="D52" t="n">
         <v>28</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="E52" t="n">
+        <v>17</v>
+      </c>
+      <c r="F52" t="n">
+        <v>20</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
@@ -2082,15 +1902,11 @@
       <c r="D53" t="n">
         <v>28</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="E53" t="n">
+        <v>8</v>
+      </c>
+      <c r="F53" t="n">
+        <v>13</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
@@ -2116,15 +1932,11 @@
       <c r="D54" t="n">
         <v>17</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E54" t="n">
+        <v>15</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -2146,15 +1958,11 @@
       <c r="D55" t="n">
         <v>31</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>-26</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>+76 (+60)</t>
-        </is>
+      <c r="E55" t="n">
+        <v>26</v>
+      </c>
+      <c r="F55" t="n">
+        <v>76</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
@@ -2180,15 +1988,11 @@
       <c r="D56" t="n">
         <v>14</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>6</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2214,10 +2018,8 @@
       <c r="D57" t="n">
         <v>20</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
+      <c r="E57" t="n">
+        <v>8</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2240,15 +2042,11 @@
       <c r="D58" t="n">
         <v>13</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>+14 (+4)</t>
-        </is>
+      <c r="E58" t="n">
+        <v>6</v>
+      </c>
+      <c r="F58" t="n">
+        <v>14</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2274,15 +2072,11 @@
       <c r="D59" t="n">
         <v>18</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>+78 (+62)</t>
-        </is>
+      <c r="E59" t="n">
+        <v>7</v>
+      </c>
+      <c r="F59" t="n">
+        <v>78</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
@@ -2308,15 +2102,11 @@
       <c r="D60" t="n">
         <v>24</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>+22</t>
-        </is>
+      <c r="E60" t="n">
+        <v>7</v>
+      </c>
+      <c r="F60" t="n">
+        <v>22</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
@@ -2342,15 +2132,11 @@
       <c r="D61" t="n">
         <v>15</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E61" t="n">
+        <v>6</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -2372,15 +2158,11 @@
       <c r="D62" t="n">
         <v>20</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E62" t="n">
+        <v>11</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
@@ -2406,15 +2188,11 @@
       <c r="D63" t="n">
         <v>34</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>+31 (+16)</t>
-        </is>
+      <c r="E63" t="n">
+        <v>19</v>
+      </c>
+      <c r="F63" t="n">
+        <v>31</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
@@ -2440,15 +2218,11 @@
       <c r="D64" t="n">
         <v>23</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E64" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" t="n">
+        <v>15</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
@@ -2474,15 +2248,11 @@
       <c r="D65" t="n">
         <v>19</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E65" t="n">
+        <v>9</v>
+      </c>
+      <c r="F65" t="n">
+        <v>17</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
@@ -2508,15 +2278,11 @@
       <c r="D66" t="n">
         <v>15</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E66" t="n">
+        <v>8</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
@@ -2538,15 +2304,11 @@
       <c r="D67" t="n">
         <v>19</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E67" t="n">
+        <v>8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2572,15 +2334,11 @@
       <c r="D68" t="n">
         <v>21</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E68" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>7</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
@@ -2602,15 +2360,11 @@
       <c r="D69" t="n">
         <v>21</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E69" t="n">
+        <v>3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
@@ -2652,15 +2406,11 @@
       <c r="D71" t="n">
         <v>23</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>+33 (+23)</t>
-        </is>
+      <c r="E71" t="n">
+        <v>16</v>
+      </c>
+      <c r="F71" t="n">
+        <v>33</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
@@ -2686,15 +2436,11 @@
       <c r="D72" t="n">
         <v>18</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>+52</t>
-        </is>
+      <c r="E72" t="n">
+        <v>9</v>
+      </c>
+      <c r="F72" t="n">
+        <v>52</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
@@ -2716,15 +2462,11 @@
       <c r="D73" t="n">
         <v>24</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>+70 (+54)</t>
-        </is>
+      <c r="E73" t="n">
+        <v>14</v>
+      </c>
+      <c r="F73" t="n">
+        <v>70</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
@@ -2750,15 +2492,11 @@
       <c r="D74" t="n">
         <v>22</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>+26 (-9)</t>
-        </is>
+      <c r="E74" t="n">
+        <v>10</v>
+      </c>
+      <c r="F74" t="n">
+        <v>26</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
@@ -2784,15 +2522,11 @@
       <c r="D75" t="n">
         <v>33</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>-31</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>+20 (+13)</t>
-        </is>
+      <c r="E75" t="n">
+        <v>31</v>
+      </c>
+      <c r="F75" t="n">
+        <v>20</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
@@ -2818,15 +2552,11 @@
       <c r="D76" t="n">
         <v>21</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>-13c</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E76" t="n">
+        <v>13</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-2</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2852,15 +2582,11 @@
       <c r="D77" t="n">
         <v>18</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>+55</t>
-        </is>
+      <c r="E77" t="n">
+        <v>14</v>
+      </c>
+      <c r="F77" t="n">
+        <v>55</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
@@ -2882,15 +2608,11 @@
       <c r="D78" t="n">
         <v>19</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>-8c</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E78" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
@@ -2912,15 +2634,11 @@
       <c r="D79" t="n">
         <v>20</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E79" t="n">
+        <v>2</v>
+      </c>
+      <c r="F79" t="n">
+        <v>6</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
@@ -2946,15 +2664,11 @@
       <c r="D80" t="n">
         <v>24</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>+16</t>
-        </is>
+      <c r="E80" t="n">
+        <v>9</v>
+      </c>
+      <c r="F80" t="n">
+        <v>16</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
@@ -2980,15 +2694,11 @@
       <c r="D81" t="n">
         <v>18</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E81" t="n">
+        <v>9</v>
+      </c>
+      <c r="F81" t="n">
+        <v>17</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
@@ -3014,15 +2724,11 @@
       <c r="D82" t="n">
         <v>32</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>+8c</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>+8c</t>
-        </is>
+      <c r="E82" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F82" t="n">
+        <v>8</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
@@ -3048,15 +2754,11 @@
       <c r="D83" t="n">
         <v>19</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>+30 (+20)</t>
-        </is>
+      <c r="E83" t="n">
+        <v>15</v>
+      </c>
+      <c r="F83" t="n">
+        <v>30</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
@@ -3078,15 +2780,11 @@
       <c r="D84" t="n">
         <v>20</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>+32 (+25)</t>
-        </is>
+      <c r="E84" t="n">
+        <v>14</v>
+      </c>
+      <c r="F84" t="n">
+        <v>32</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
@@ -3112,15 +2810,11 @@
       <c r="D85" t="n">
         <v>20</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>+13 (+3)</t>
-        </is>
+      <c r="E85" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F85" t="n">
+        <v>13</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
@@ -3147,10 +2841,8 @@
         <v>30</v>
       </c>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>+28 (+18)</t>
-        </is>
+      <c r="F86" t="n">
+        <v>28</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
@@ -3176,15 +2868,11 @@
       <c r="D87" t="n">
         <v>21</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>+30 (-6)</t>
-        </is>
+      <c r="E87" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F87" t="n">
+        <v>30</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
@@ -3210,15 +2898,11 @@
       <c r="D88" t="n">
         <v>30</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>+12c</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>+19</t>
-        </is>
+      <c r="E88" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F88" t="n">
+        <v>19</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3244,15 +2928,11 @@
       <c r="D89" t="n">
         <v>10</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>+36 (+28)</t>
-        </is>
+      <c r="E89" t="n">
+        <v>8</v>
+      </c>
+      <c r="F89" t="n">
+        <v>36</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -3294,15 +2974,11 @@
       <c r="D91" t="n">
         <v>20</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>-13c</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E91" t="n">
+        <v>13</v>
+      </c>
+      <c r="F91" t="n">
+        <v>8</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3328,15 +3004,11 @@
       <c r="D92" t="n">
         <v>14</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E92" t="n">
+        <v>9</v>
+      </c>
+      <c r="F92" t="n">
+        <v>17</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
@@ -3362,15 +3034,11 @@
       <c r="D93" t="n">
         <v>22</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>+77 (+55)</t>
-        </is>
+      <c r="E93" t="n">
+        <v>14</v>
+      </c>
+      <c r="F93" t="n">
+        <v>77</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
@@ -3396,15 +3064,11 @@
       <c r="D94" t="n">
         <v>31</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E94" t="n">
+        <v>7</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-3</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
@@ -3448,15 +3112,11 @@
       <c r="D96" t="n">
         <v>18</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>-31c</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E96" t="n">
+        <v>31</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-4</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -3478,15 +3138,11 @@
       <c r="D97" t="n">
         <v>28</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>+30 (+20)</t>
-        </is>
+      <c r="E97" t="n">
+        <v>6</v>
+      </c>
+      <c r="F97" t="n">
+        <v>30</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
@@ -3511,10 +3167,8 @@
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="F98" t="n">
+        <v>-6</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
@@ -3541,10 +3195,8 @@
         <v>24</v>
       </c>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>-2 (-10)</t>
-        </is>
+      <c r="F99" t="n">
+        <v>-2</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
@@ -3582,15 +3234,11 @@
       <c r="D101" t="n">
         <v>22</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>-14c</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E101" t="n">
+        <v>14</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3616,15 +3264,11 @@
       <c r="D102" t="n">
         <v>16</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>0c</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3650,15 +3294,11 @@
       <c r="D103" t="n">
         <v>22</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>+35 (+25)</t>
-        </is>
+      <c r="E103" t="n">
+        <v>14</v>
+      </c>
+      <c r="F103" t="n">
+        <v>35</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
@@ -3684,15 +3324,11 @@
       <c r="D104" t="n">
         <v>20</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E104" t="n">
+        <v>15</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
@@ -3717,10 +3353,8 @@
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="F105" t="n">
+        <v>-4</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
@@ -3746,15 +3380,11 @@
       <c r="D106" t="n">
         <v>22</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>+21 (+12)</t>
-        </is>
+      <c r="E106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>21</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
@@ -3780,15 +3410,11 @@
       <c r="D107" t="n">
         <v>15</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E107" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F107" t="n">
+        <v>9</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3818,15 +3444,11 @@
       <c r="D108" t="n">
         <v>21</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>-31c</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>+8 (-8)</t>
-        </is>
+      <c r="E108" t="n">
+        <v>31</v>
+      </c>
+      <c r="F108" t="n">
+        <v>8</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3856,15 +3478,11 @@
       <c r="D109" t="n">
         <v>20</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>+30</t>
-        </is>
+      <c r="E109" t="n">
+        <v>15</v>
+      </c>
+      <c r="F109" t="n">
+        <v>30</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
@@ -3890,15 +3508,11 @@
       <c r="D110" t="n">
         <v>18</v>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>-9c</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E110" t="n">
+        <v>9</v>
+      </c>
+      <c r="F110" t="n">
+        <v>17</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
@@ -3920,15 +3534,11 @@
       <c r="D111" t="n">
         <v>14</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E111" t="n">
+        <v>3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>6</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
@@ -3950,15 +3560,11 @@
       <c r="D112" t="n">
         <v>22</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>+3b</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>+23</t>
-        </is>
+      <c r="E112" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>23</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
@@ -3984,15 +3590,11 @@
       <c r="D113" t="n">
         <v>20</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E113" t="n">
+        <v>13</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
@@ -4015,10 +3617,8 @@
         <v>18</v>
       </c>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>+53</t>
-        </is>
+      <c r="F114" t="n">
+        <v>53</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
@@ -4040,15 +3640,11 @@
       <c r="D115" t="n">
         <v>38</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
+      <c r="E115" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>10</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
@@ -4071,10 +3667,8 @@
         <v>79</v>
       </c>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>+50 (+19)</t>
-        </is>
+      <c r="F116" t="n">
+        <v>50</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -4096,15 +3690,11 @@
       <c r="D117" t="n">
         <v>16</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
+      <c r="E117" t="n">
+        <v>10</v>
+      </c>
+      <c r="F117" t="n">
+        <v>10</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -4126,15 +3716,11 @@
       <c r="D118" t="n">
         <v>18</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E118" t="n">
+        <v>5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
@@ -4155,10 +3741,8 @@
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F119" t="n">
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
@@ -4184,15 +3768,11 @@
       <c r="D120" t="n">
         <v>18</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E120" t="n">
+        <v>10</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
@@ -4214,15 +3794,11 @@
       <c r="D121" t="n">
         <v>22</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>+22</t>
-        </is>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>22</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
@@ -4244,15 +3820,11 @@
       <c r="D122" t="n">
         <v>24</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>+25 (+18)</t>
-        </is>
+      <c r="E122" t="n">
+        <v>14</v>
+      </c>
+      <c r="F122" t="n">
+        <v>25</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
@@ -4272,15 +3844,11 @@
         <v>38</v>
       </c>
       <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>+70 (+54)</t>
-        </is>
+      <c r="E123" t="n">
+        <v>6</v>
+      </c>
+      <c r="F123" t="n">
+        <v>70</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
@@ -4306,15 +3874,11 @@
       <c r="D124" t="n">
         <v>15</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>+33 (+23)</t>
-        </is>
+      <c r="E124" t="n">
+        <v>13</v>
+      </c>
+      <c r="F124" t="n">
+        <v>33</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
@@ -4340,15 +3904,11 @@
       <c r="D125" t="n">
         <v>23</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>+32 (+22)</t>
-        </is>
+      <c r="E125" t="n">
+        <v>13</v>
+      </c>
+      <c r="F125" t="n">
+        <v>32</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
@@ -4370,15 +3930,11 @@
       <c r="D126" t="n">
         <v>13</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>5</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
@@ -4400,15 +3956,11 @@
       <c r="D127" t="n">
         <v>23</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E127" t="n">
+        <v>9</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
@@ -4428,15 +3980,11 @@
         <v>29</v>
       </c>
       <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E128" t="n">
+        <v>10</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
@@ -4462,15 +4010,11 @@
       <c r="D129" t="n">
         <v>17</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>+12 (+3)</t>
-        </is>
+      <c r="E129" t="n">
+        <v>12</v>
+      </c>
+      <c r="F129" t="n">
+        <v>12</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4500,15 +4044,11 @@
       <c r="D130" t="n">
         <v>22</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E130" t="n">
+        <v>6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4538,15 +4078,11 @@
       <c r="D131" t="n">
         <v>15</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>+24</t>
-        </is>
+      <c r="E131" t="n">
+        <v>7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>24</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4576,15 +4112,11 @@
       <c r="D132" t="n">
         <v>15</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>+33 (+23)</t>
-        </is>
+      <c r="E132" t="n">
+        <v>12</v>
+      </c>
+      <c r="F132" t="n">
+        <v>33</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
@@ -4606,15 +4138,11 @@
       <c r="D133" t="n">
         <v>11</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E133" t="n">
+        <v>7</v>
+      </c>
+      <c r="F133" t="n">
+        <v>7</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4622,6 +4150,3470 @@
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>f+4</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>19</v>
+      </c>
+      <c r="D134" t="n">
+        <v>18</v>
+      </c>
+      <c r="E134" t="n">
+        <v>9</v>
+      </c>
+      <c r="F134" t="n">
+        <v>52</v>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>f+4,2</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>H,M</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>35</v>
+      </c>
+      <c r="D135" t="n">
+        <v>24</v>
+      </c>
+      <c r="E135" t="n">
+        <v>14</v>
+      </c>
+      <c r="F135" t="n">
+        <v>70</v>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Combo from 1st hit / Tornado</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>f+4,3</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>H,M</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>40</v>
+      </c>
+      <c r="D136" t="n">
+        <v>22</v>
+      </c>
+      <c r="E136" t="n">
+        <v>10</v>
+      </c>
+      <c r="F136" t="n">
+        <v>26</v>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Spike / Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>f+4,4</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>H,L</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>30</v>
+      </c>
+      <c r="D137" t="n">
+        <v>33</v>
+      </c>
+      <c r="E137" t="n">
+        <v>31</v>
+      </c>
+      <c r="F137" t="n">
+        <v>20</v>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>FC DF+1</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>19</v>
+      </c>
+      <c r="D138" t="n">
+        <v>21</v>
+      </c>
+      <c r="E138" t="n">
+        <v>13</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>FC DF+2</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>21</v>
+      </c>
+      <c r="D139" t="n">
+        <v>18</v>
+      </c>
+      <c r="E139" t="n">
+        <v>14</v>
+      </c>
+      <c r="F139" t="n">
+        <v>55</v>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>FC DF4</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>10</v>
+      </c>
+      <c r="D140" t="n">
+        <v>19</v>
+      </c>
+      <c r="E140" t="n">
+        <v>8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3</v>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>FC DF4,1</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>L,H</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>25</v>
+      </c>
+      <c r="D141" t="n">
+        <v>20</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6</v>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Combo from 1st attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>f,F+1+2</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>25</v>
+      </c>
+      <c r="D142" t="n">
+        <v>24</v>
+      </c>
+      <c r="E142" t="n">
+        <v>9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16</v>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Balcony Break / Hold 1+2 to power up and deal more chip damage on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>f,F+2</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>25</v>
+      </c>
+      <c r="D143" t="n">
+        <v>18</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9</v>
+      </c>
+      <c r="F143" t="n">
+        <v>17</v>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Heat Engager / Balcony Break</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>f,F+3</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>35</v>
+      </c>
+      <c r="D144" t="n">
+        <v>32</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F144" t="n">
+        <v>8</v>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Chip damage on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>f,F+4</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>15</v>
+      </c>
+      <c r="D145" t="n">
+        <v>19</v>
+      </c>
+      <c r="E145" t="n">
+        <v>15</v>
+      </c>
+      <c r="F145" t="n">
+        <v>30</v>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>f,F+4,3</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>29</v>
+      </c>
+      <c r="D146" t="n">
+        <v>20</v>
+      </c>
+      <c r="E146" t="n">
+        <v>14</v>
+      </c>
+      <c r="F146" t="n">
+        <v>32</v>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Move can be powered up by delaying input</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>f,f,F+3</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>30</v>
+      </c>
+      <c r="D147" t="n">
+        <v>20</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F147" t="n">
+        <v>13</v>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Balcony Break / Chip damage on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Grounded Face Up B+3+4</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>20</v>
+      </c>
+      <c r="D148" t="n">
+        <v>30</v>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="n">
+        <v>28</v>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Balcony Break</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>H.2+3</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>48</v>
+      </c>
+      <c r="D149" t="n">
+        <v>21</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F149" t="n">
+        <v>30</v>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Heat Smash / Chip damage on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>H.3+4</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>30</v>
+      </c>
+      <c r="D150" t="n">
+        <v>30</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F150" t="n">
+        <v>19</v>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Consumes Heat</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>H.b+1</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>20</v>
+      </c>
+      <c r="D151" t="n">
+        <v>10</v>
+      </c>
+      <c r="E151" t="n">
+        <v>8</v>
+      </c>
+      <c r="F151" t="n">
+        <v>36</v>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Consumes Heat</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>b+3+4</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>KNP 1</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>20</v>
+      </c>
+      <c r="D153" t="n">
+        <v>20</v>
+      </c>
+      <c r="E153" t="n">
+        <v>13</v>
+      </c>
+      <c r="F153" t="n">
+        <v>8</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>+38</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>KNP 2</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>20</v>
+      </c>
+      <c r="D154" t="n">
+        <v>14</v>
+      </c>
+      <c r="E154" t="n">
+        <v>9</v>
+      </c>
+      <c r="F154" t="n">
+        <v>17</v>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Heat Engager / Balcony Break</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>KNP 3</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>20</v>
+      </c>
+      <c r="D155" t="n">
+        <v>22</v>
+      </c>
+      <c r="E155" t="n">
+        <v>14</v>
+      </c>
+      <c r="F155" t="n">
+        <v>77</v>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Tornado</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>KNP 3+4</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>30</v>
+      </c>
+      <c r="D156" t="n">
+        <v>31</v>
+      </c>
+      <c r="E156" t="n">
+        <v>7</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>KNP 3+4,3+4</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>30</v>
+      </c>
+      <c r="D157" t="n">
+        <v>39</v>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>KNP 4</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>10</v>
+      </c>
+      <c r="D158" t="n">
+        <v>18</v>
+      </c>
+      <c r="E158" t="n">
+        <v>31</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>KNP 4,1+2</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>L,H</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>34</v>
+      </c>
+      <c r="D159" t="n">
+        <v>28</v>
+      </c>
+      <c r="E159" t="n">
+        <v>6</v>
+      </c>
+      <c r="F159" t="n">
+        <v>30</v>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Balcony Break / Combo from 1st attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Left Throw</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>40</v>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Throw break 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>OTG d+3+4</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>19</v>
+      </c>
+      <c r="D161" t="n">
+        <v>24</v>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>qcf</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>qcf1</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>23</v>
+      </c>
+      <c r="D163" t="n">
+        <v>22</v>
+      </c>
+      <c r="E163" t="n">
+        <v>14</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>+31</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>qcf1+2</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>21</v>
+      </c>
+      <c r="D164" t="n">
+        <v>16</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>7</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>+23</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>qcf2</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>25</v>
+      </c>
+      <c r="D165" t="n">
+        <v>22</v>
+      </c>
+      <c r="E165" t="n">
+        <v>14</v>
+      </c>
+      <c r="F165" t="n">
+        <v>35</v>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Tornado</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>R.df+1+2</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>55</v>
+      </c>
+      <c r="D166" t="n">
+        <v>20</v>
+      </c>
+      <c r="E166" t="n">
+        <v>15</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Rage Art</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Right Throw</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>40</v>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Throw break 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>SS 1+2</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>24</v>
+      </c>
+      <c r="D168" t="n">
+        <v>22</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>21</v>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Balcony Break / Chip damage on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>SS 2</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>18</v>
+      </c>
+      <c r="D169" t="n">
+        <v>15</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F169" t="n">
+        <v>9</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>+31</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Homing</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>SS 4</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>19</v>
+      </c>
+      <c r="D170" t="n">
+        <v>21</v>
+      </c>
+      <c r="E170" t="n">
+        <v>31</v>
+      </c>
+      <c r="F170" t="n">
+        <v>8</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>+72 (+56)</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Has a clean hit effect</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>STC 1</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>20</v>
+      </c>
+      <c r="D171" t="n">
+        <v>20</v>
+      </c>
+      <c r="E171" t="n">
+        <v>15</v>
+      </c>
+      <c r="F171" t="n">
+        <v>30</v>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Absorb an attack to power up and deal more chip damage on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>STC 1+2</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>20</v>
+      </c>
+      <c r="D172" t="n">
+        <v>18</v>
+      </c>
+      <c r="E172" t="n">
+        <v>9</v>
+      </c>
+      <c r="F172" t="n">
+        <v>17</v>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>STC 2</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>15</v>
+      </c>
+      <c r="D173" t="n">
+        <v>14</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3</v>
+      </c>
+      <c r="F173" t="n">
+        <v>6</v>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>STC 3</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>25</v>
+      </c>
+      <c r="D174" t="n">
+        <v>22</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F174" t="n">
+        <v>23</v>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Homing / Balcony Break / Chip damage on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>STC 4</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>20</v>
+      </c>
+      <c r="D175" t="n">
+        <v>20</v>
+      </c>
+      <c r="E175" t="n">
+        <v>13</v>
+      </c>
+      <c r="F175" t="n">
+        <v>3</v>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>STC F+3+4</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>21</v>
+      </c>
+      <c r="D176" t="n">
+        <v>18</v>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="n">
+        <v>53</v>
+      </c>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>u+2</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>25</v>
+      </c>
+      <c r="D177" t="n">
+        <v>38</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F177" t="n">
+        <v>10</v>
+      </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>ub+1+2</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>!</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>70</v>
+      </c>
+      <c r="D178" t="n">
+        <v>79</v>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="n">
+        <v>50</v>
+      </c>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>ub+2</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>M,H</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>28</v>
+      </c>
+      <c r="D179" t="n">
+        <v>16</v>
+      </c>
+      <c r="E179" t="n">
+        <v>10</v>
+      </c>
+      <c r="F179" t="n">
+        <v>10</v>
+      </c>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>uf+1</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>12</v>
+      </c>
+      <c r="D180" t="n">
+        <v>18</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4</v>
+      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>uf+1+2</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>40</v>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Spike / Throw break 1+2</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>uf+2</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>18</v>
+      </c>
+      <c r="D182" t="n">
+        <v>18</v>
+      </c>
+      <c r="E182" t="n">
+        <v>10</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3</v>
+      </c>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>uf+3</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>20</v>
+      </c>
+      <c r="D183" t="n">
+        <v>22</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>22</v>
+      </c>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>uf+3+4</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>M,H,H</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>27</v>
+      </c>
+      <c r="D184" t="n">
+        <v>24</v>
+      </c>
+      <c r="E184" t="n">
+        <v>14</v>
+      </c>
+      <c r="F184" t="n">
+        <v>25</v>
+      </c>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>uf+3+4,3</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>M,H,H,H</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>38</v>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="n">
+        <v>6</v>
+      </c>
+      <c r="F185" t="n">
+        <v>70</v>
+      </c>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Balcony Break / Tornado / Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>uf+4</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>13</v>
+      </c>
+      <c r="D186" t="n">
+        <v>15</v>
+      </c>
+      <c r="E186" t="n">
+        <v>13</v>
+      </c>
+      <c r="F186" t="n">
+        <v>33</v>
+      </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Move can also be input with uf or u</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>uf,n,4</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>20</v>
+      </c>
+      <c r="D187" t="n">
+        <v>23</v>
+      </c>
+      <c r="E187" t="n">
+        <v>13</v>
+      </c>
+      <c r="F187" t="n">
+        <v>32</v>
+      </c>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ws1</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>13</v>
+      </c>
+      <c r="D188" t="n">
+        <v>13</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1</v>
+      </c>
+      <c r="F188" t="n">
+        <v>5</v>
+      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ws1+2</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>20</v>
+      </c>
+      <c r="D189" t="n">
+        <v>23</v>
+      </c>
+      <c r="E189" t="n">
+        <v>9</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3</v>
+      </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ws1,2</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>29</v>
+      </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="n">
+        <v>10</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Jail from 1st attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ws1,2,1</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>M,M,M</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>49</v>
+      </c>
+      <c r="D191" t="n">
+        <v>17</v>
+      </c>
+      <c r="E191" t="n">
+        <v>12</v>
+      </c>
+      <c r="F191" t="n">
+        <v>12</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>+32 (+24)</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Balcony Break / Move can be delayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ws1,3</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>M,H</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>33</v>
+      </c>
+      <c r="D192" t="n">
+        <v>22</v>
+      </c>
+      <c r="E192" t="n">
+        <v>6</v>
+      </c>
+      <c r="F192" t="n">
+        <v>4</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>+20</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Combo from 1st CH / Move can be delayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ws2</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>17</v>
+      </c>
+      <c r="D193" t="n">
+        <v>15</v>
+      </c>
+      <c r="E193" t="n">
+        <v>7</v>
+      </c>
+      <c r="F193" t="n">
+        <v>24</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>+78 (+62)</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Balcony Break / Tornado (CH Only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ws3</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>15</v>
+      </c>
+      <c r="D194" t="n">
+        <v>15</v>
+      </c>
+      <c r="E194" t="n">
+        <v>12</v>
+      </c>
+      <c r="F194" t="n">
+        <v>33</v>
+      </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ws4</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>18</v>
+      </c>
+      <c r="D195" t="n">
+        <v>11</v>
+      </c>
+      <c r="E195" t="n">
+        <v>7</v>
+      </c>
+      <c r="F195" t="n">
+        <v>7</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>+29</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>f+4</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>19</v>
+      </c>
+      <c r="D196" t="n">
+        <v>18</v>
+      </c>
+      <c r="E196" t="n">
+        <v>9</v>
+      </c>
+      <c r="F196" t="n">
+        <v>52</v>
+      </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>f+4,2</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>H,M</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>35</v>
+      </c>
+      <c r="D197" t="n">
+        <v>24</v>
+      </c>
+      <c r="E197" t="n">
+        <v>14</v>
+      </c>
+      <c r="F197" t="n">
+        <v>70</v>
+      </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Combo from 1st hit / Tornado</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>f+4,3</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>H,M</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>40</v>
+      </c>
+      <c r="D198" t="n">
+        <v>22</v>
+      </c>
+      <c r="E198" t="n">
+        <v>10</v>
+      </c>
+      <c r="F198" t="n">
+        <v>26</v>
+      </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Spike / Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>f+4,4</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>H,L</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>30</v>
+      </c>
+      <c r="D199" t="n">
+        <v>33</v>
+      </c>
+      <c r="E199" t="n">
+        <v>31</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20</v>
+      </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>FC DF+1</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>19</v>
+      </c>
+      <c r="D200" t="n">
+        <v>21</v>
+      </c>
+      <c r="E200" t="n">
+        <v>13</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>FC DF+2</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>21</v>
+      </c>
+      <c r="D201" t="n">
+        <v>18</v>
+      </c>
+      <c r="E201" t="n">
+        <v>14</v>
+      </c>
+      <c r="F201" t="n">
+        <v>55</v>
+      </c>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>FC DF4</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>10</v>
+      </c>
+      <c r="D202" t="n">
+        <v>19</v>
+      </c>
+      <c r="E202" t="n">
+        <v>8</v>
+      </c>
+      <c r="F202" t="n">
+        <v>3</v>
+      </c>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>FC DF4,1</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>L,H</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>25</v>
+      </c>
+      <c r="D203" t="n">
+        <v>20</v>
+      </c>
+      <c r="E203" t="n">
+        <v>2</v>
+      </c>
+      <c r="F203" t="n">
+        <v>6</v>
+      </c>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Combo from 1st attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>f,F+1+2</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>25</v>
+      </c>
+      <c r="D204" t="n">
+        <v>24</v>
+      </c>
+      <c r="E204" t="n">
+        <v>9</v>
+      </c>
+      <c r="F204" t="n">
+        <v>16</v>
+      </c>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Balcony Break / Hold 1+2 to power up and deal more chip damage on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>f,F+2</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>25</v>
+      </c>
+      <c r="D205" t="n">
+        <v>18</v>
+      </c>
+      <c r="E205" t="n">
+        <v>9</v>
+      </c>
+      <c r="F205" t="n">
+        <v>17</v>
+      </c>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Heat Engager / Balcony Break</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>f,F+3</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>35</v>
+      </c>
+      <c r="D206" t="n">
+        <v>32</v>
+      </c>
+      <c r="E206" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F206" t="n">
+        <v>8</v>
+      </c>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Chip damage on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>f,F+4</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>15</v>
+      </c>
+      <c r="D207" t="n">
+        <v>19</v>
+      </c>
+      <c r="E207" t="n">
+        <v>15</v>
+      </c>
+      <c r="F207" t="n">
+        <v>30</v>
+      </c>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>f,F+4,3</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>29</v>
+      </c>
+      <c r="D208" t="n">
+        <v>20</v>
+      </c>
+      <c r="E208" t="n">
+        <v>14</v>
+      </c>
+      <c r="F208" t="n">
+        <v>32</v>
+      </c>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Move can be powered up by delaying input</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>f,f,F+3</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>30</v>
+      </c>
+      <c r="D209" t="n">
+        <v>20</v>
+      </c>
+      <c r="E209" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F209" t="n">
+        <v>13</v>
+      </c>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Balcony Break / Chip damage on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Grounded Face Up B+3+4</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>20</v>
+      </c>
+      <c r="D210" t="n">
+        <v>30</v>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="n">
+        <v>28</v>
+      </c>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Balcony Break</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>H.2+3</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>48</v>
+      </c>
+      <c r="D211" t="n">
+        <v>21</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F211" t="n">
+        <v>30</v>
+      </c>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Heat Smash / Chip damage on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>H.3+4</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>30</v>
+      </c>
+      <c r="D212" t="n">
+        <v>30</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F212" t="n">
+        <v>19</v>
+      </c>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Consumes Heat</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>H.b+1</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>20</v>
+      </c>
+      <c r="D213" t="n">
+        <v>10</v>
+      </c>
+      <c r="E213" t="n">
+        <v>8</v>
+      </c>
+      <c r="F213" t="n">
+        <v>36</v>
+      </c>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Consumes Heat</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>b+3+4</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>KNP 1</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>20</v>
+      </c>
+      <c r="D215" t="n">
+        <v>20</v>
+      </c>
+      <c r="E215" t="n">
+        <v>13</v>
+      </c>
+      <c r="F215" t="n">
+        <v>8</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>+38</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>KNP 2</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>20</v>
+      </c>
+      <c r="D216" t="n">
+        <v>14</v>
+      </c>
+      <c r="E216" t="n">
+        <v>9</v>
+      </c>
+      <c r="F216" t="n">
+        <v>17</v>
+      </c>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Heat Engager / Balcony Break</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>KNP 3</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>20</v>
+      </c>
+      <c r="D217" t="n">
+        <v>22</v>
+      </c>
+      <c r="E217" t="n">
+        <v>14</v>
+      </c>
+      <c r="F217" t="n">
+        <v>77</v>
+      </c>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Tornado</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>KNP 3+4</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>30</v>
+      </c>
+      <c r="D218" t="n">
+        <v>31</v>
+      </c>
+      <c r="E218" t="n">
+        <v>7</v>
+      </c>
+      <c r="F218" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>KNP 3+4,3+4</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>30</v>
+      </c>
+      <c r="D219" t="n">
+        <v>39</v>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>KNP 4</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>10</v>
+      </c>
+      <c r="D220" t="n">
+        <v>18</v>
+      </c>
+      <c r="E220" t="n">
+        <v>31</v>
+      </c>
+      <c r="F220" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>KNP 4,1+2</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>L,H</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>34</v>
+      </c>
+      <c r="D221" t="n">
+        <v>28</v>
+      </c>
+      <c r="E221" t="n">
+        <v>6</v>
+      </c>
+      <c r="F221" t="n">
+        <v>30</v>
+      </c>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Balcony Break / Combo from 1st attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Left Throw</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>40</v>
+      </c>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Throw break 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>OTG d+3+4</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>19</v>
+      </c>
+      <c r="D223" t="n">
+        <v>24</v>
+      </c>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>qcf</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>qcf1</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>23</v>
+      </c>
+      <c r="D225" t="n">
+        <v>22</v>
+      </c>
+      <c r="E225" t="n">
+        <v>14</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>+31</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>qcf1+2</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>21</v>
+      </c>
+      <c r="D226" t="n">
+        <v>16</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>7</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>+23</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>qcf2</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>25</v>
+      </c>
+      <c r="D227" t="n">
+        <v>22</v>
+      </c>
+      <c r="E227" t="n">
+        <v>14</v>
+      </c>
+      <c r="F227" t="n">
+        <v>35</v>
+      </c>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Tornado</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>R.df+1+2</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>55</v>
+      </c>
+      <c r="D228" t="n">
+        <v>20</v>
+      </c>
+      <c r="E228" t="n">
+        <v>15</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Rage Art</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Right Throw</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>40</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Throw break 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>SS 1+2</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>24</v>
+      </c>
+      <c r="D230" t="n">
+        <v>22</v>
+      </c>
+      <c r="E230" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F230" t="n">
+        <v>21</v>
+      </c>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Balcony Break / Chip damage on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>SS 2</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>18</v>
+      </c>
+      <c r="D231" t="n">
+        <v>15</v>
+      </c>
+      <c r="E231" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F231" t="n">
+        <v>9</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>+31</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Homing</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>SS 4</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>19</v>
+      </c>
+      <c r="D232" t="n">
+        <v>21</v>
+      </c>
+      <c r="E232" t="n">
+        <v>31</v>
+      </c>
+      <c r="F232" t="n">
+        <v>8</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>+72 (+56)</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Has a clean hit effect</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>STC 1</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>20</v>
+      </c>
+      <c r="D233" t="n">
+        <v>20</v>
+      </c>
+      <c r="E233" t="n">
+        <v>15</v>
+      </c>
+      <c r="F233" t="n">
+        <v>30</v>
+      </c>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Absorb an attack to power up and deal more chip damage on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>STC 1+2</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>20</v>
+      </c>
+      <c r="D234" t="n">
+        <v>18</v>
+      </c>
+      <c r="E234" t="n">
+        <v>9</v>
+      </c>
+      <c r="F234" t="n">
+        <v>17</v>
+      </c>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>STC 2</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>15</v>
+      </c>
+      <c r="D235" t="n">
+        <v>14</v>
+      </c>
+      <c r="E235" t="n">
+        <v>3</v>
+      </c>
+      <c r="F235" t="n">
+        <v>6</v>
+      </c>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>STC 3</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>25</v>
+      </c>
+      <c r="D236" t="n">
+        <v>22</v>
+      </c>
+      <c r="E236" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F236" t="n">
+        <v>23</v>
+      </c>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Homing / Balcony Break / Chip damage on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>STC 4</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>20</v>
+      </c>
+      <c r="D237" t="n">
+        <v>20</v>
+      </c>
+      <c r="E237" t="n">
+        <v>13</v>
+      </c>
+      <c r="F237" t="n">
+        <v>3</v>
+      </c>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>STC F+3+4</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>21</v>
+      </c>
+      <c r="D238" t="n">
+        <v>18</v>
+      </c>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="n">
+        <v>53</v>
+      </c>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>u+2</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>25</v>
+      </c>
+      <c r="D239" t="n">
+        <v>38</v>
+      </c>
+      <c r="E239" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F239" t="n">
+        <v>10</v>
+      </c>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>ub+1+2</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>!</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>70</v>
+      </c>
+      <c r="D240" t="n">
+        <v>79</v>
+      </c>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="n">
+        <v>50</v>
+      </c>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ub+2</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>M,H</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>28</v>
+      </c>
+      <c r="D241" t="n">
+        <v>16</v>
+      </c>
+      <c r="E241" t="n">
+        <v>10</v>
+      </c>
+      <c r="F241" t="n">
+        <v>10</v>
+      </c>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>uf+1</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>12</v>
+      </c>
+      <c r="D242" t="n">
+        <v>18</v>
+      </c>
+      <c r="E242" t="n">
+        <v>5</v>
+      </c>
+      <c r="F242" t="n">
+        <v>4</v>
+      </c>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>uf+1+2</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>40</v>
+      </c>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Spike / Throw break 1+2</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>uf+2</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>18</v>
+      </c>
+      <c r="D244" t="n">
+        <v>18</v>
+      </c>
+      <c r="E244" t="n">
+        <v>10</v>
+      </c>
+      <c r="F244" t="n">
+        <v>3</v>
+      </c>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>uf+3</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>20</v>
+      </c>
+      <c r="D245" t="n">
+        <v>22</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>22</v>
+      </c>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>uf+3+4</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>M,H,H</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>27</v>
+      </c>
+      <c r="D246" t="n">
+        <v>24</v>
+      </c>
+      <c r="E246" t="n">
+        <v>14</v>
+      </c>
+      <c r="F246" t="n">
+        <v>25</v>
+      </c>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>uf+3+4,3</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>M,H,H,H</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>38</v>
+      </c>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="n">
+        <v>6</v>
+      </c>
+      <c r="F247" t="n">
+        <v>70</v>
+      </c>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Balcony Break / Tornado / Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>uf+4</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>13</v>
+      </c>
+      <c r="D248" t="n">
+        <v>15</v>
+      </c>
+      <c r="E248" t="n">
+        <v>13</v>
+      </c>
+      <c r="F248" t="n">
+        <v>33</v>
+      </c>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Move can also be input with uf or u</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>uf,n,4</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>20</v>
+      </c>
+      <c r="D249" t="n">
+        <v>23</v>
+      </c>
+      <c r="E249" t="n">
+        <v>13</v>
+      </c>
+      <c r="F249" t="n">
+        <v>32</v>
+      </c>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>ws1</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>13</v>
+      </c>
+      <c r="D250" t="n">
+        <v>13</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1</v>
+      </c>
+      <c r="F250" t="n">
+        <v>5</v>
+      </c>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>ws1+2</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>20</v>
+      </c>
+      <c r="D251" t="n">
+        <v>23</v>
+      </c>
+      <c r="E251" t="n">
+        <v>9</v>
+      </c>
+      <c r="F251" t="n">
+        <v>3</v>
+      </c>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>ws1,2</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>29</v>
+      </c>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="n">
+        <v>10</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1</v>
+      </c>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Jail from 1st attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>ws1,2,1</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>M,M,M</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>49</v>
+      </c>
+      <c r="D253" t="n">
+        <v>17</v>
+      </c>
+      <c r="E253" t="n">
+        <v>12</v>
+      </c>
+      <c r="F253" t="n">
+        <v>12</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>+32 (+24)</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Balcony Break / Move can be delayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>ws1,3</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>M,H</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>33</v>
+      </c>
+      <c r="D254" t="n">
+        <v>22</v>
+      </c>
+      <c r="E254" t="n">
+        <v>6</v>
+      </c>
+      <c r="F254" t="n">
+        <v>4</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>+20</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Combo from 1st CH / Move can be delayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>ws2</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>17</v>
+      </c>
+      <c r="D255" t="n">
+        <v>15</v>
+      </c>
+      <c r="E255" t="n">
+        <v>7</v>
+      </c>
+      <c r="F255" t="n">
+        <v>24</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>+78 (+62)</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Balcony Break / Tornado (CH Only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>ws3</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>15</v>
+      </c>
+      <c r="D256" t="n">
+        <v>15</v>
+      </c>
+      <c r="E256" t="n">
+        <v>12</v>
+      </c>
+      <c r="F256" t="n">
+        <v>33</v>
+      </c>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>ws4</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>18</v>
+      </c>
+      <c r="D257" t="n">
+        <v>11</v>
+      </c>
+      <c r="E257" t="n">
+        <v>7</v>
+      </c>
+      <c r="F257" t="n">
+        <v>7</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>+29</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/feng-wei-tekken-8-frame-data.xlsx
+++ b/data/feng-wei-tekken-8-frame-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H257"/>
+  <dimension ref="A1:H195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
@@ -519,7 +519,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -553,7 +553,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F4" t="n">
         <v>8</v>
@@ -579,7 +579,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F5" t="n">
         <v>8</v>
@@ -609,7 +609,7 @@
         <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
@@ -681,7 +681,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F11" t="n">
         <v>5</v>
@@ -753,7 +753,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
@@ -809,7 +809,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F14" t="n">
         <v>-1</v>
@@ -839,7 +839,7 @@
         <v>24</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F15" t="n">
         <v>24</v>
@@ -869,7 +869,7 @@
         <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>28</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F17" t="n">
         <v>22</v>
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
@@ -955,7 +955,7 @@
         <v>25</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F19" t="n">
         <v>17</v>
@@ -985,7 +985,7 @@
         <v>34</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -1011,7 +1011,7 @@
         <v>18</v>
       </c>
       <c r="E21" t="n">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="F21" t="n">
         <v>19</v>
@@ -1041,7 +1041,7 @@
         <v>28</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -1071,7 +1071,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -1101,7 +1101,7 @@
         <v>13</v>
       </c>
       <c r="E24" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F24" t="n">
         <v>17</v>
@@ -1147,7 +1147,7 @@
         <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>22</v>
       </c>
       <c r="E27" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>24</v>
       </c>
       <c r="E28" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F28" t="n">
         <v>19</v>
@@ -1233,7 +1233,7 @@
         <v>24</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F29" t="n">
         <v>4</v>
@@ -1263,7 +1263,7 @@
         <v>22</v>
       </c>
       <c r="E30" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
         <v>10</v>
@@ -1313,7 +1313,7 @@
         <v>12</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F32" t="n">
         <v>4</v>
@@ -1365,7 +1365,7 @@
         <v>25</v>
       </c>
       <c r="E34" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F34" t="n">
         <v>10</v>
@@ -1391,7 +1391,7 @@
         <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F35" t="n">
         <v>14</v>
@@ -1417,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F36" t="n">
         <v>8</v>
@@ -1477,7 +1477,7 @@
         <v>19</v>
       </c>
       <c r="E38" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F38" t="n">
         <v>17</v>
@@ -1507,7 +1507,7 @@
         <v>32</v>
       </c>
       <c r="E39" t="n">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="F39" t="n">
         <v>8</v>
@@ -1537,7 +1537,7 @@
         <v>18</v>
       </c>
       <c r="E40" t="n">
-        <v>-26</v>
+        <v>26</v>
       </c>
       <c r="F40" t="n">
         <v>-3</v>
@@ -1567,7 +1567,7 @@
         <v>20</v>
       </c>
       <c r="E41" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F41" t="n">
         <v>8</v>
@@ -1593,7 +1593,7 @@
         <v>22</v>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F42" t="n">
         <v>18</v>
@@ -1623,7 +1623,7 @@
         <v>20</v>
       </c>
       <c r="E43" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F43" t="n">
         <v>-1</v>
@@ -1649,7 +1649,7 @@
         <v>14</v>
       </c>
       <c r="E44" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>26</v>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F45" t="n">
         <v>11</v>
@@ -1705,7 +1705,7 @@
         <v>16</v>
       </c>
       <c r="E46" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F46" t="n">
         <v>4</v>
@@ -1731,7 +1731,7 @@
         <v>21</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F47" t="n">
         <v>4</v>
@@ -1757,7 +1757,7 @@
         <v>23</v>
       </c>
       <c r="E48" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F48" t="n">
         <v>7</v>
@@ -1787,7 +1787,7 @@
         <v>29</v>
       </c>
       <c r="E49" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F49" t="n">
         <v>-1</v>
@@ -1817,7 +1817,7 @@
         <v>24</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F50" t="n">
         <v>24</v>
@@ -1847,7 +1847,7 @@
         <v>20</v>
       </c>
       <c r="E51" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>28</v>
       </c>
       <c r="E52" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F52" t="n">
         <v>20</v>
@@ -1903,7 +1903,7 @@
         <v>28</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F53" t="n">
         <v>13</v>
@@ -1933,7 +1933,7 @@
         <v>17</v>
       </c>
       <c r="E54" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F54" t="n">
         <v>4</v>
@@ -1959,7 +1959,7 @@
         <v>31</v>
       </c>
       <c r="E55" t="n">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="F55" t="n">
         <v>76</v>
@@ -2019,7 +2019,7 @@
         <v>20</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2043,7 +2043,7 @@
         <v>13</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F58" t="n">
         <v>14</v>
@@ -2073,7 +2073,7 @@
         <v>18</v>
       </c>
       <c r="E59" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F59" t="n">
         <v>78</v>
@@ -2103,7 +2103,7 @@
         <v>24</v>
       </c>
       <c r="E60" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F60" t="n">
         <v>22</v>
@@ -2133,7 +2133,7 @@
         <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F61" t="n">
         <v>5</v>
@@ -2159,7 +2159,7 @@
         <v>20</v>
       </c>
       <c r="E62" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
@@ -2189,7 +2189,7 @@
         <v>34</v>
       </c>
       <c r="E63" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F63" t="n">
         <v>31</v>
@@ -2219,7 +2219,7 @@
         <v>23</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F64" t="n">
         <v>15</v>
@@ -2249,7 +2249,7 @@
         <v>19</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F65" t="n">
         <v>17</v>
@@ -2279,7 +2279,7 @@
         <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F66" t="n">
         <v>3</v>
@@ -2305,7 +2305,7 @@
         <v>19</v>
       </c>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F67" t="n">
         <v>3</v>
@@ -2335,7 +2335,7 @@
         <v>21</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F68" t="n">
         <v>7</v>
@@ -2361,7 +2361,7 @@
         <v>21</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F69" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         <v>23</v>
       </c>
       <c r="E71" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F71" t="n">
         <v>33</v>
@@ -2437,7 +2437,7 @@
         <v>18</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F72" t="n">
         <v>52</v>
@@ -2463,7 +2463,7 @@
         <v>24</v>
       </c>
       <c r="E73" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F73" t="n">
         <v>70</v>
@@ -2493,7 +2493,7 @@
         <v>22</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F74" t="n">
         <v>26</v>
@@ -2523,7 +2523,7 @@
         <v>33</v>
       </c>
       <c r="E75" t="n">
-        <v>31</v>
+        <v>-31</v>
       </c>
       <c r="F75" t="n">
         <v>20</v>
@@ -2553,7 +2553,7 @@
         <v>21</v>
       </c>
       <c r="E76" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F76" t="n">
         <v>-2</v>
@@ -2583,7 +2583,7 @@
         <v>18</v>
       </c>
       <c r="E77" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F77" t="n">
         <v>55</v>
@@ -2609,7 +2609,7 @@
         <v>19</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F78" t="n">
         <v>3</v>
@@ -2635,7 +2635,7 @@
         <v>20</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F79" t="n">
         <v>6</v>
@@ -2665,7 +2665,7 @@
         <v>24</v>
       </c>
       <c r="E80" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F80" t="n">
         <v>16</v>
@@ -2695,7 +2695,7 @@
         <v>18</v>
       </c>
       <c r="E81" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F81" t="n">
         <v>17</v>
@@ -2725,7 +2725,7 @@
         <v>32</v>
       </c>
       <c r="E82" t="n">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="F82" t="n">
         <v>8</v>
@@ -2755,7 +2755,7 @@
         <v>19</v>
       </c>
       <c r="E83" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F83" t="n">
         <v>30</v>
@@ -2781,7 +2781,7 @@
         <v>20</v>
       </c>
       <c r="E84" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F84" t="n">
         <v>32</v>
@@ -2811,7 +2811,7 @@
         <v>20</v>
       </c>
       <c r="E85" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F85" t="n">
         <v>13</v>
@@ -2869,7 +2869,7 @@
         <v>21</v>
       </c>
       <c r="E87" t="n">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="F87" t="n">
         <v>30</v>
@@ -2899,7 +2899,7 @@
         <v>30</v>
       </c>
       <c r="E88" t="n">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="F88" t="n">
         <v>19</v>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F89" t="n">
         <v>36</v>
@@ -2975,7 +2975,7 @@
         <v>20</v>
       </c>
       <c r="E91" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F91" t="n">
         <v>8</v>
@@ -3005,7 +3005,7 @@
         <v>14</v>
       </c>
       <c r="E92" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F92" t="n">
         <v>17</v>
@@ -3035,7 +3035,7 @@
         <v>22</v>
       </c>
       <c r="E93" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F93" t="n">
         <v>77</v>
@@ -3065,7 +3065,7 @@
         <v>31</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F94" t="n">
         <v>-3</v>
@@ -3113,7 +3113,7 @@
         <v>18</v>
       </c>
       <c r="E96" t="n">
-        <v>31</v>
+        <v>-31</v>
       </c>
       <c r="F96" t="n">
         <v>-4</v>
@@ -3139,7 +3139,7 @@
         <v>28</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F97" t="n">
         <v>30</v>
@@ -3235,7 +3235,7 @@
         <v>22</v>
       </c>
       <c r="E101" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F101" t="n">
         <v>2</v>
@@ -3295,7 +3295,7 @@
         <v>22</v>
       </c>
       <c r="E103" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F103" t="n">
         <v>35</v>
@@ -3325,7 +3325,7 @@
         <v>20</v>
       </c>
       <c r="E104" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>22</v>
       </c>
       <c r="E106" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
         <v>21</v>
@@ -3411,7 +3411,7 @@
         <v>15</v>
       </c>
       <c r="E107" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F107" t="n">
         <v>9</v>
@@ -3445,7 +3445,7 @@
         <v>21</v>
       </c>
       <c r="E108" t="n">
-        <v>31</v>
+        <v>-31</v>
       </c>
       <c r="F108" t="n">
         <v>8</v>
@@ -3479,7 +3479,7 @@
         <v>20</v>
       </c>
       <c r="E109" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F109" t="n">
         <v>30</v>
@@ -3509,7 +3509,7 @@
         <v>18</v>
       </c>
       <c r="E110" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F110" t="n">
         <v>17</v>
@@ -3535,7 +3535,7 @@
         <v>14</v>
       </c>
       <c r="E111" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F111" t="n">
         <v>6</v>
@@ -3561,7 +3561,7 @@
         <v>22</v>
       </c>
       <c r="E112" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F112" t="n">
         <v>23</v>
@@ -3591,7 +3591,7 @@
         <v>20</v>
       </c>
       <c r="E113" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F113" t="n">
         <v>3</v>
@@ -3641,7 +3641,7 @@
         <v>38</v>
       </c>
       <c r="E115" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F115" t="n">
         <v>10</v>
@@ -3691,7 +3691,7 @@
         <v>16</v>
       </c>
       <c r="E117" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F117" t="n">
         <v>10</v>
@@ -3717,7 +3717,7 @@
         <v>18</v>
       </c>
       <c r="E118" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F118" t="n">
         <v>4</v>
@@ -3769,7 +3769,7 @@
         <v>18</v>
       </c>
       <c r="E120" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F120" t="n">
         <v>3</v>
@@ -3795,7 +3795,7 @@
         <v>22</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F121" t="n">
         <v>22</v>
@@ -3821,7 +3821,7 @@
         <v>24</v>
       </c>
       <c r="E122" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F122" t="n">
         <v>25</v>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F123" t="n">
         <v>70</v>
@@ -3875,7 +3875,7 @@
         <v>15</v>
       </c>
       <c r="E124" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F124" t="n">
         <v>33</v>
@@ -3905,7 +3905,7 @@
         <v>23</v>
       </c>
       <c r="E125" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F125" t="n">
         <v>32</v>
@@ -3931,7 +3931,7 @@
         <v>13</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F126" t="n">
         <v>5</v>
@@ -3957,7 +3957,7 @@
         <v>23</v>
       </c>
       <c r="E127" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F127" t="n">
         <v>3</v>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F128" t="n">
         <v>1</v>
@@ -4011,7 +4011,7 @@
         <v>17</v>
       </c>
       <c r="E129" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F129" t="n">
         <v>12</v>
@@ -4045,7 +4045,7 @@
         <v>22</v>
       </c>
       <c r="E130" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F130" t="n">
         <v>4</v>
@@ -4079,7 +4079,7 @@
         <v>15</v>
       </c>
       <c r="E131" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F131" t="n">
         <v>24</v>
@@ -4113,7 +4113,7 @@
         <v>15</v>
       </c>
       <c r="E132" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F132" t="n">
         <v>33</v>
@@ -4139,7 +4139,7 @@
         <v>11</v>
       </c>
       <c r="E133" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F133" t="n">
         <v>7</v>
@@ -4169,7 +4169,7 @@
         <v>18</v>
       </c>
       <c r="E134" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F134" t="n">
         <v>52</v>
@@ -4195,7 +4195,7 @@
         <v>24</v>
       </c>
       <c r="E135" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F135" t="n">
         <v>70</v>
@@ -4225,7 +4225,7 @@
         <v>22</v>
       </c>
       <c r="E136" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F136" t="n">
         <v>26</v>
@@ -4255,7 +4255,7 @@
         <v>33</v>
       </c>
       <c r="E137" t="n">
-        <v>31</v>
+        <v>-31</v>
       </c>
       <c r="F137" t="n">
         <v>20</v>
@@ -4285,7 +4285,7 @@
         <v>21</v>
       </c>
       <c r="E138" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F138" t="n">
         <v>-2</v>
@@ -4315,7 +4315,7 @@
         <v>18</v>
       </c>
       <c r="E139" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F139" t="n">
         <v>55</v>
@@ -4341,7 +4341,7 @@
         <v>19</v>
       </c>
       <c r="E140" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F140" t="n">
         <v>3</v>
@@ -4367,7 +4367,7 @@
         <v>20</v>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F141" t="n">
         <v>6</v>
@@ -4397,7 +4397,7 @@
         <v>24</v>
       </c>
       <c r="E142" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F142" t="n">
         <v>16</v>
@@ -4427,7 +4427,7 @@
         <v>18</v>
       </c>
       <c r="E143" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F143" t="n">
         <v>17</v>
@@ -4457,7 +4457,7 @@
         <v>32</v>
       </c>
       <c r="E144" t="n">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="F144" t="n">
         <v>8</v>
@@ -4487,7 +4487,7 @@
         <v>19</v>
       </c>
       <c r="E145" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F145" t="n">
         <v>30</v>
@@ -4513,7 +4513,7 @@
         <v>20</v>
       </c>
       <c r="E146" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F146" t="n">
         <v>32</v>
@@ -4543,7 +4543,7 @@
         <v>20</v>
       </c>
       <c r="E147" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F147" t="n">
         <v>13</v>
@@ -4601,7 +4601,7 @@
         <v>21</v>
       </c>
       <c r="E149" t="n">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="F149" t="n">
         <v>30</v>
@@ -4631,7 +4631,7 @@
         <v>30</v>
       </c>
       <c r="E150" t="n">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="F150" t="n">
         <v>19</v>
@@ -4661,7 +4661,7 @@
         <v>10</v>
       </c>
       <c r="E151" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F151" t="n">
         <v>36</v>
@@ -4707,7 +4707,7 @@
         <v>20</v>
       </c>
       <c r="E153" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F153" t="n">
         <v>8</v>
@@ -4737,7 +4737,7 @@
         <v>14</v>
       </c>
       <c r="E154" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F154" t="n">
         <v>17</v>
@@ -4767,7 +4767,7 @@
         <v>22</v>
       </c>
       <c r="E155" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F155" t="n">
         <v>77</v>
@@ -4797,7 +4797,7 @@
         <v>31</v>
       </c>
       <c r="E156" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F156" t="n">
         <v>-3</v>
@@ -4845,7 +4845,7 @@
         <v>18</v>
       </c>
       <c r="E158" t="n">
-        <v>31</v>
+        <v>-31</v>
       </c>
       <c r="F158" t="n">
         <v>-4</v>
@@ -4871,7 +4871,7 @@
         <v>28</v>
       </c>
       <c r="E159" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F159" t="n">
         <v>30</v>
@@ -4967,7 +4967,7 @@
         <v>22</v>
       </c>
       <c r="E163" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F163" t="n">
         <v>2</v>
@@ -5027,7 +5027,7 @@
         <v>22</v>
       </c>
       <c r="E165" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F165" t="n">
         <v>35</v>
@@ -5057,7 +5057,7 @@
         <v>20</v>
       </c>
       <c r="E166" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -5113,7 +5113,7 @@
         <v>22</v>
       </c>
       <c r="E168" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
         <v>21</v>
@@ -5143,7 +5143,7 @@
         <v>15</v>
       </c>
       <c r="E169" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F169" t="n">
         <v>9</v>
@@ -5177,7 +5177,7 @@
         <v>21</v>
       </c>
       <c r="E170" t="n">
-        <v>31</v>
+        <v>-31</v>
       </c>
       <c r="F170" t="n">
         <v>8</v>
@@ -5211,7 +5211,7 @@
         <v>20</v>
       </c>
       <c r="E171" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F171" t="n">
         <v>30</v>
@@ -5241,7 +5241,7 @@
         <v>18</v>
       </c>
       <c r="E172" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F172" t="n">
         <v>17</v>
@@ -5267,7 +5267,7 @@
         <v>14</v>
       </c>
       <c r="E173" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F173" t="n">
         <v>6</v>
@@ -5293,7 +5293,7 @@
         <v>22</v>
       </c>
       <c r="E174" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F174" t="n">
         <v>23</v>
@@ -5323,7 +5323,7 @@
         <v>20</v>
       </c>
       <c r="E175" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F175" t="n">
         <v>3</v>
@@ -5373,7 +5373,7 @@
         <v>38</v>
       </c>
       <c r="E177" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F177" t="n">
         <v>10</v>
@@ -5423,7 +5423,7 @@
         <v>16</v>
       </c>
       <c r="E179" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F179" t="n">
         <v>10</v>
@@ -5449,7 +5449,7 @@
         <v>18</v>
       </c>
       <c r="E180" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F180" t="n">
         <v>4</v>
@@ -5501,7 +5501,7 @@
         <v>18</v>
       </c>
       <c r="E182" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F182" t="n">
         <v>3</v>
@@ -5527,7 +5527,7 @@
         <v>22</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F183" t="n">
         <v>22</v>
@@ -5553,7 +5553,7 @@
         <v>24</v>
       </c>
       <c r="E184" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F184" t="n">
         <v>25</v>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F185" t="n">
         <v>70</v>
@@ -5607,7 +5607,7 @@
         <v>15</v>
       </c>
       <c r="E186" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F186" t="n">
         <v>33</v>
@@ -5637,7 +5637,7 @@
         <v>23</v>
       </c>
       <c r="E187" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F187" t="n">
         <v>32</v>
@@ -5663,7 +5663,7 @@
         <v>13</v>
       </c>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F188" t="n">
         <v>5</v>
@@ -5689,7 +5689,7 @@
         <v>23</v>
       </c>
       <c r="E189" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F189" t="n">
         <v>3</v>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -5743,7 +5743,7 @@
         <v>17</v>
       </c>
       <c r="E191" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F191" t="n">
         <v>12</v>
@@ -5777,7 +5777,7 @@
         <v>22</v>
       </c>
       <c r="E192" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F192" t="n">
         <v>4</v>
@@ -5811,7 +5811,7 @@
         <v>15</v>
       </c>
       <c r="E193" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F193" t="n">
         <v>24</v>
@@ -5845,7 +5845,7 @@
         <v>15</v>
       </c>
       <c r="E194" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F194" t="n">
         <v>33</v>
@@ -5871,7 +5871,7 @@
         <v>11</v>
       </c>
       <c r="E195" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F195" t="n">
         <v>7</v>
@@ -5882,1738 +5882,6 @@
         </is>
       </c>
       <c r="H195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>f+4</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
-        <v>19</v>
-      </c>
-      <c r="D196" t="n">
-        <v>18</v>
-      </c>
-      <c r="E196" t="n">
-        <v>9</v>
-      </c>
-      <c r="F196" t="n">
-        <v>52</v>
-      </c>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>f+4,2</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>H,M</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v>35</v>
-      </c>
-      <c r="D197" t="n">
-        <v>24</v>
-      </c>
-      <c r="E197" t="n">
-        <v>14</v>
-      </c>
-      <c r="F197" t="n">
-        <v>70</v>
-      </c>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Combo from 1st hit / Tornado</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>f+4,3</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>H,M</t>
-        </is>
-      </c>
-      <c r="C198" t="n">
-        <v>40</v>
-      </c>
-      <c r="D198" t="n">
-        <v>22</v>
-      </c>
-      <c r="E198" t="n">
-        <v>10</v>
-      </c>
-      <c r="F198" t="n">
-        <v>26</v>
-      </c>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Spike / Combo from 1st hit</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>f+4,4</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>H,L</t>
-        </is>
-      </c>
-      <c r="C199" t="n">
-        <v>30</v>
-      </c>
-      <c r="D199" t="n">
-        <v>33</v>
-      </c>
-      <c r="E199" t="n">
-        <v>31</v>
-      </c>
-      <c r="F199" t="n">
-        <v>20</v>
-      </c>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Combo from 1st hit</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>FC DF+1</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C200" t="n">
-        <v>19</v>
-      </c>
-      <c r="D200" t="n">
-        <v>21</v>
-      </c>
-      <c r="E200" t="n">
-        <v>13</v>
-      </c>
-      <c r="F200" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>FC DF+2</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C201" t="n">
-        <v>21</v>
-      </c>
-      <c r="D201" t="n">
-        <v>18</v>
-      </c>
-      <c r="E201" t="n">
-        <v>14</v>
-      </c>
-      <c r="F201" t="n">
-        <v>55</v>
-      </c>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>FC DF4</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C202" t="n">
-        <v>10</v>
-      </c>
-      <c r="D202" t="n">
-        <v>19</v>
-      </c>
-      <c r="E202" t="n">
-        <v>8</v>
-      </c>
-      <c r="F202" t="n">
-        <v>3</v>
-      </c>
-      <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>FC DF4,1</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>L,H</t>
-        </is>
-      </c>
-      <c r="C203" t="n">
-        <v>25</v>
-      </c>
-      <c r="D203" t="n">
-        <v>20</v>
-      </c>
-      <c r="E203" t="n">
-        <v>2</v>
-      </c>
-      <c r="F203" t="n">
-        <v>6</v>
-      </c>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>Combo from 1st attack</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>f,F+1+2</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C204" t="n">
-        <v>25</v>
-      </c>
-      <c r="D204" t="n">
-        <v>24</v>
-      </c>
-      <c r="E204" t="n">
-        <v>9</v>
-      </c>
-      <c r="F204" t="n">
-        <v>16</v>
-      </c>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>Balcony Break / Hold 1+2 to power up and deal more chip damage on block</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>f,F+2</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C205" t="n">
-        <v>25</v>
-      </c>
-      <c r="D205" t="n">
-        <v>18</v>
-      </c>
-      <c r="E205" t="n">
-        <v>9</v>
-      </c>
-      <c r="F205" t="n">
-        <v>17</v>
-      </c>
-      <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>Heat Engager / Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>f,F+3</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C206" t="n">
-        <v>35</v>
-      </c>
-      <c r="D206" t="n">
-        <v>32</v>
-      </c>
-      <c r="E206" t="n">
-        <v>-8</v>
-      </c>
-      <c r="F206" t="n">
-        <v>8</v>
-      </c>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Chip damage on block</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>f,F+4</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C207" t="n">
-        <v>15</v>
-      </c>
-      <c r="D207" t="n">
-        <v>19</v>
-      </c>
-      <c r="E207" t="n">
-        <v>15</v>
-      </c>
-      <c r="F207" t="n">
-        <v>30</v>
-      </c>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>f,F+4,3</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C208" t="n">
-        <v>29</v>
-      </c>
-      <c r="D208" t="n">
-        <v>20</v>
-      </c>
-      <c r="E208" t="n">
-        <v>14</v>
-      </c>
-      <c r="F208" t="n">
-        <v>32</v>
-      </c>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>Move can be powered up by delaying input</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>f,f,F+3</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C209" t="n">
-        <v>30</v>
-      </c>
-      <c r="D209" t="n">
-        <v>20</v>
-      </c>
-      <c r="E209" t="n">
-        <v>-6</v>
-      </c>
-      <c r="F209" t="n">
-        <v>13</v>
-      </c>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>Balcony Break / Chip damage on block</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Grounded Face Up B+3+4</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C210" t="n">
-        <v>20</v>
-      </c>
-      <c r="D210" t="n">
-        <v>30</v>
-      </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="n">
-        <v>28</v>
-      </c>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>H.2+3</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C211" t="n">
-        <v>48</v>
-      </c>
-      <c r="D211" t="n">
-        <v>21</v>
-      </c>
-      <c r="E211" t="n">
-        <v>-12</v>
-      </c>
-      <c r="F211" t="n">
-        <v>30</v>
-      </c>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Heat Smash / Chip damage on block</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>H.3+4</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C212" t="n">
-        <v>30</v>
-      </c>
-      <c r="D212" t="n">
-        <v>30</v>
-      </c>
-      <c r="E212" t="n">
-        <v>-12</v>
-      </c>
-      <c r="F212" t="n">
-        <v>19</v>
-      </c>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Consumes Heat</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>H.b+1</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C213" t="n">
-        <v>20</v>
-      </c>
-      <c r="D213" t="n">
-        <v>10</v>
-      </c>
-      <c r="E213" t="n">
-        <v>8</v>
-      </c>
-      <c r="F213" t="n">
-        <v>36</v>
-      </c>
-      <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>Consumes Heat</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>b+3+4</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr"/>
-      <c r="C214" t="n">
-        <v>0</v>
-      </c>
-      <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>KNP 1</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C215" t="n">
-        <v>20</v>
-      </c>
-      <c r="D215" t="n">
-        <v>20</v>
-      </c>
-      <c r="E215" t="n">
-        <v>13</v>
-      </c>
-      <c r="F215" t="n">
-        <v>8</v>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>+38</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>KNP 2</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C216" t="n">
-        <v>20</v>
-      </c>
-      <c r="D216" t="n">
-        <v>14</v>
-      </c>
-      <c r="E216" t="n">
-        <v>9</v>
-      </c>
-      <c r="F216" t="n">
-        <v>17</v>
-      </c>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Heat Engager / Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>KNP 3</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C217" t="n">
-        <v>20</v>
-      </c>
-      <c r="D217" t="n">
-        <v>22</v>
-      </c>
-      <c r="E217" t="n">
-        <v>14</v>
-      </c>
-      <c r="F217" t="n">
-        <v>77</v>
-      </c>
-      <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>Tornado</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>KNP 3+4</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C218" t="n">
-        <v>30</v>
-      </c>
-      <c r="D218" t="n">
-        <v>31</v>
-      </c>
-      <c r="E218" t="n">
-        <v>7</v>
-      </c>
-      <c r="F218" t="n">
-        <v>-3</v>
-      </c>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>KNP 3+4,3+4</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C219" t="n">
-        <v>30</v>
-      </c>
-      <c r="D219" t="n">
-        <v>39</v>
-      </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>KNP 4</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C220" t="n">
-        <v>10</v>
-      </c>
-      <c r="D220" t="n">
-        <v>18</v>
-      </c>
-      <c r="E220" t="n">
-        <v>31</v>
-      </c>
-      <c r="F220" t="n">
-        <v>-4</v>
-      </c>
-      <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>KNP 4,1+2</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>L,H</t>
-        </is>
-      </c>
-      <c r="C221" t="n">
-        <v>34</v>
-      </c>
-      <c r="D221" t="n">
-        <v>28</v>
-      </c>
-      <c r="E221" t="n">
-        <v>6</v>
-      </c>
-      <c r="F221" t="n">
-        <v>30</v>
-      </c>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Balcony Break / Combo from 1st attack</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Left Throw</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C222" t="n">
-        <v>40</v>
-      </c>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="n">
-        <v>-6</v>
-      </c>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Throw break 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>OTG d+3+4</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C223" t="n">
-        <v>19</v>
-      </c>
-      <c r="D223" t="n">
-        <v>24</v>
-      </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>qcf</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr"/>
-      <c r="C224" t="n">
-        <v>0</v>
-      </c>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>qcf1</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C225" t="n">
-        <v>23</v>
-      </c>
-      <c r="D225" t="n">
-        <v>22</v>
-      </c>
-      <c r="E225" t="n">
-        <v>14</v>
-      </c>
-      <c r="F225" t="n">
-        <v>2</v>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>+31</t>
-        </is>
-      </c>
-      <c r="H225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>qcf1+2</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C226" t="n">
-        <v>21</v>
-      </c>
-      <c r="D226" t="n">
-        <v>16</v>
-      </c>
-      <c r="E226" t="n">
-        <v>0</v>
-      </c>
-      <c r="F226" t="n">
-        <v>7</v>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>+23</t>
-        </is>
-      </c>
-      <c r="H226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>qcf2</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C227" t="n">
-        <v>25</v>
-      </c>
-      <c r="D227" t="n">
-        <v>22</v>
-      </c>
-      <c r="E227" t="n">
-        <v>14</v>
-      </c>
-      <c r="F227" t="n">
-        <v>35</v>
-      </c>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>Tornado</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>R.df+1+2</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="C228" t="n">
-        <v>55</v>
-      </c>
-      <c r="D228" t="n">
-        <v>20</v>
-      </c>
-      <c r="E228" t="n">
-        <v>15</v>
-      </c>
-      <c r="F228" t="n">
-        <v>0</v>
-      </c>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>Rage Art</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Right Throw</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C229" t="n">
-        <v>40</v>
-      </c>
-      <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="n">
-        <v>-4</v>
-      </c>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>Throw break 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>SS 1+2</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C230" t="n">
-        <v>24</v>
-      </c>
-      <c r="D230" t="n">
-        <v>22</v>
-      </c>
-      <c r="E230" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F230" t="n">
-        <v>21</v>
-      </c>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>Balcony Break / Chip damage on block</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>SS 2</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C231" t="n">
-        <v>18</v>
-      </c>
-      <c r="D231" t="n">
-        <v>15</v>
-      </c>
-      <c r="E231" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F231" t="n">
-        <v>9</v>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>+31</t>
-        </is>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>Homing</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>SS 4</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C232" t="n">
-        <v>19</v>
-      </c>
-      <c r="D232" t="n">
-        <v>21</v>
-      </c>
-      <c r="E232" t="n">
-        <v>31</v>
-      </c>
-      <c r="F232" t="n">
-        <v>8</v>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>+72 (+56)</t>
-        </is>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>Has a clean hit effect</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>STC 1</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C233" t="n">
-        <v>20</v>
-      </c>
-      <c r="D233" t="n">
-        <v>20</v>
-      </c>
-      <c r="E233" t="n">
-        <v>15</v>
-      </c>
-      <c r="F233" t="n">
-        <v>30</v>
-      </c>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Absorb an attack to power up and deal more chip damage on block</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>STC 1+2</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C234" t="n">
-        <v>20</v>
-      </c>
-      <c r="D234" t="n">
-        <v>18</v>
-      </c>
-      <c r="E234" t="n">
-        <v>9</v>
-      </c>
-      <c r="F234" t="n">
-        <v>17</v>
-      </c>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>STC 2</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C235" t="n">
-        <v>15</v>
-      </c>
-      <c r="D235" t="n">
-        <v>14</v>
-      </c>
-      <c r="E235" t="n">
-        <v>3</v>
-      </c>
-      <c r="F235" t="n">
-        <v>6</v>
-      </c>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>STC 3</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C236" t="n">
-        <v>25</v>
-      </c>
-      <c r="D236" t="n">
-        <v>22</v>
-      </c>
-      <c r="E236" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F236" t="n">
-        <v>23</v>
-      </c>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Homing / Balcony Break / Chip damage on block</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>STC 4</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C237" t="n">
-        <v>20</v>
-      </c>
-      <c r="D237" t="n">
-        <v>20</v>
-      </c>
-      <c r="E237" t="n">
-        <v>13</v>
-      </c>
-      <c r="F237" t="n">
-        <v>3</v>
-      </c>
-      <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>STC F+3+4</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C238" t="n">
-        <v>21</v>
-      </c>
-      <c r="D238" t="n">
-        <v>18</v>
-      </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="n">
-        <v>53</v>
-      </c>
-      <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>u+2</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C239" t="n">
-        <v>25</v>
-      </c>
-      <c r="D239" t="n">
-        <v>38</v>
-      </c>
-      <c r="E239" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F239" t="n">
-        <v>10</v>
-      </c>
-      <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>ub+1+2</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
-      <c r="C240" t="n">
-        <v>70</v>
-      </c>
-      <c r="D240" t="n">
-        <v>79</v>
-      </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="n">
-        <v>50</v>
-      </c>
-      <c r="G240" t="inlineStr"/>
-      <c r="H240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>ub+2</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C241" t="n">
-        <v>28</v>
-      </c>
-      <c r="D241" t="n">
-        <v>16</v>
-      </c>
-      <c r="E241" t="n">
-        <v>10</v>
-      </c>
-      <c r="F241" t="n">
-        <v>10</v>
-      </c>
-      <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>uf+1</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C242" t="n">
-        <v>12</v>
-      </c>
-      <c r="D242" t="n">
-        <v>18</v>
-      </c>
-      <c r="E242" t="n">
-        <v>5</v>
-      </c>
-      <c r="F242" t="n">
-        <v>4</v>
-      </c>
-      <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>uf+1+2</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C243" t="n">
-        <v>40</v>
-      </c>
-      <c r="D243" t="inlineStr"/>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="n">
-        <v>0</v>
-      </c>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>Spike / Throw break 1+2</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>uf+2</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C244" t="n">
-        <v>18</v>
-      </c>
-      <c r="D244" t="n">
-        <v>18</v>
-      </c>
-      <c r="E244" t="n">
-        <v>10</v>
-      </c>
-      <c r="F244" t="n">
-        <v>3</v>
-      </c>
-      <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>uf+3</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C245" t="n">
-        <v>20</v>
-      </c>
-      <c r="D245" t="n">
-        <v>22</v>
-      </c>
-      <c r="E245" t="n">
-        <v>1</v>
-      </c>
-      <c r="F245" t="n">
-        <v>22</v>
-      </c>
-      <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>uf+3+4</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>M,H,H</t>
-        </is>
-      </c>
-      <c r="C246" t="n">
-        <v>27</v>
-      </c>
-      <c r="D246" t="n">
-        <v>24</v>
-      </c>
-      <c r="E246" t="n">
-        <v>14</v>
-      </c>
-      <c r="F246" t="n">
-        <v>25</v>
-      </c>
-      <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>uf+3+4,3</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>M,H,H,H</t>
-        </is>
-      </c>
-      <c r="C247" t="n">
-        <v>38</v>
-      </c>
-      <c r="D247" t="inlineStr"/>
-      <c r="E247" t="n">
-        <v>6</v>
-      </c>
-      <c r="F247" t="n">
-        <v>70</v>
-      </c>
-      <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>Balcony Break / Tornado / Combo from 1st hit</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>uf+4</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C248" t="n">
-        <v>13</v>
-      </c>
-      <c r="D248" t="n">
-        <v>15</v>
-      </c>
-      <c r="E248" t="n">
-        <v>13</v>
-      </c>
-      <c r="F248" t="n">
-        <v>33</v>
-      </c>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>Move can also be input with uf or u</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>uf,n,4</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C249" t="n">
-        <v>20</v>
-      </c>
-      <c r="D249" t="n">
-        <v>23</v>
-      </c>
-      <c r="E249" t="n">
-        <v>13</v>
-      </c>
-      <c r="F249" t="n">
-        <v>32</v>
-      </c>
-      <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>ws1</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C250" t="n">
-        <v>13</v>
-      </c>
-      <c r="D250" t="n">
-        <v>13</v>
-      </c>
-      <c r="E250" t="n">
-        <v>1</v>
-      </c>
-      <c r="F250" t="n">
-        <v>5</v>
-      </c>
-      <c r="G250" t="inlineStr"/>
-      <c r="H250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>ws1+2</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C251" t="n">
-        <v>20</v>
-      </c>
-      <c r="D251" t="n">
-        <v>23</v>
-      </c>
-      <c r="E251" t="n">
-        <v>9</v>
-      </c>
-      <c r="F251" t="n">
-        <v>3</v>
-      </c>
-      <c r="G251" t="inlineStr"/>
-      <c r="H251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>ws1,2</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C252" t="n">
-        <v>29</v>
-      </c>
-      <c r="D252" t="inlineStr"/>
-      <c r="E252" t="n">
-        <v>10</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1</v>
-      </c>
-      <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>Jail from 1st attack</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>ws1,2,1</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>M,M,M</t>
-        </is>
-      </c>
-      <c r="C253" t="n">
-        <v>49</v>
-      </c>
-      <c r="D253" t="n">
-        <v>17</v>
-      </c>
-      <c r="E253" t="n">
-        <v>12</v>
-      </c>
-      <c r="F253" t="n">
-        <v>12</v>
-      </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>+32 (+24)</t>
-        </is>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>Balcony Break / Move can be delayed</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>ws1,3</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C254" t="n">
-        <v>33</v>
-      </c>
-      <c r="D254" t="n">
-        <v>22</v>
-      </c>
-      <c r="E254" t="n">
-        <v>6</v>
-      </c>
-      <c r="F254" t="n">
-        <v>4</v>
-      </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>Combo from 1st CH / Move can be delayed</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>ws2</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C255" t="n">
-        <v>17</v>
-      </c>
-      <c r="D255" t="n">
-        <v>15</v>
-      </c>
-      <c r="E255" t="n">
-        <v>7</v>
-      </c>
-      <c r="F255" t="n">
-        <v>24</v>
-      </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>+78 (+62)</t>
-        </is>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>Balcony Break / Tornado (CH Only)</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>ws3</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C256" t="n">
-        <v>15</v>
-      </c>
-      <c r="D256" t="n">
-        <v>15</v>
-      </c>
-      <c r="E256" t="n">
-        <v>12</v>
-      </c>
-      <c r="F256" t="n">
-        <v>33</v>
-      </c>
-      <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>ws4</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C257" t="n">
-        <v>18</v>
-      </c>
-      <c r="D257" t="n">
-        <v>11</v>
-      </c>
-      <c r="E257" t="n">
-        <v>7</v>
-      </c>
-      <c r="F257" t="n">
-        <v>7</v>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>+29</t>
-        </is>
-      </c>
-      <c r="H257" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
